--- a/IBU_compare/IBU_comp_excel.xlsx
+++ b/IBU_compare/IBU_comp_excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peti a hegyről\Documents\UiPath\IBU_compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD96205-4BD1-4E03-BCFF-542BDAB439E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130147E-70B1-407C-A4B8-5B941FBA3DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="1110" windowWidth="11205" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Buzz</t>
   </si>
@@ -108,6 +109,132 @@
   </si>
   <si>
     <t>Bad Pixie</t>
+  </si>
+  <si>
+    <t>Indie Pale Ale</t>
+  </si>
+  <si>
+    <t>IBU: 30  </t>
+  </si>
+  <si>
+    <t>Small Batch: Dry-hopped Pilsner</t>
+  </si>
+  <si>
+    <t>IBU: 37  </t>
+  </si>
+  <si>
+    <t>Hazy Jane Bourbon Barrel Aged</t>
+  </si>
+  <si>
+    <t>Hazy Jane Rye Barrel Aged</t>
+  </si>
+  <si>
+    <t>Karma Cloud</t>
+  </si>
+  <si>
+    <t>IBU: 50  </t>
+  </si>
+  <si>
+    <t>Native Son</t>
+  </si>
+  <si>
+    <t>IBU: 70  </t>
+  </si>
+  <si>
+    <t>AB:25</t>
+  </si>
+  <si>
+    <t>IBU: 35  </t>
+  </si>
+  <si>
+    <t>Kamikaze Knitting Club</t>
+  </si>
+  <si>
+    <t>Very Big Moose</t>
+  </si>
+  <si>
+    <t>IBU: 25  </t>
+  </si>
+  <si>
+    <t>Paradox Islay 2018</t>
+  </si>
+  <si>
+    <t>IBU: 100  </t>
+  </si>
+  <si>
+    <t>Clockwork Tangerine</t>
+  </si>
+  <si>
+    <t>Sonic Boom</t>
+  </si>
+  <si>
+    <t>IBU: 60  </t>
+  </si>
+  <si>
+    <t>Dog G</t>
+  </si>
+  <si>
+    <t>Mallow Mafia</t>
+  </si>
+  <si>
+    <t>IBU: 75  </t>
+  </si>
+  <si>
+    <t>Manic Mango</t>
+  </si>
+  <si>
+    <t>IBU: 20  </t>
+  </si>
+  <si>
+    <t>Baltic Fleet</t>
+  </si>
+  <si>
+    <t>IBU: 45  </t>
+  </si>
+  <si>
+    <t>SOS! (May Day!)</t>
+  </si>
+  <si>
+    <t>IBU: 34  </t>
+  </si>
+  <si>
+    <t>Al Adjore!</t>
+  </si>
+  <si>
+    <t>IBU: 65  </t>
+  </si>
+  <si>
+    <t>Neverland</t>
+  </si>
+  <si>
+    <t>IBU: 40  </t>
+  </si>
+  <si>
+    <t>Grano Giusto</t>
+  </si>
+  <si>
+    <t>IBU: 28  </t>
+  </si>
+  <si>
+    <t>King of Eights</t>
+  </si>
+  <si>
+    <t>Jinx Pale Ale</t>
+  </si>
+  <si>
+    <t>Jet Trash</t>
+  </si>
+  <si>
+    <t>Interstate Vienna Lager.</t>
+  </si>
+  <si>
+    <t>Fools Gold Dortmunder Lager</t>
+  </si>
+  <si>
+    <t>IBU: 32  </t>
+  </si>
+  <si>
+    <t>BEER</t>
   </si>
 </sst>
 </file>
@@ -426,11 +553,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BC2EDC-A712-4F45-8923-A65E0F6BB9AF}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
